--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgav</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H2">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I2">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J2">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>133.98624360646</v>
+        <v>341.863276959171</v>
       </c>
       <c r="R2">
-        <v>535.9449744258401</v>
+        <v>1367.453107836684</v>
       </c>
       <c r="S2">
-        <v>0.01922338910311958</v>
+        <v>0.04966214092782269</v>
       </c>
       <c r="T2">
-        <v>0.01058381333410408</v>
+        <v>0.031891802285319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H3">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I3">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J3">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>520.729773410932</v>
+        <v>967.9733008157465</v>
       </c>
       <c r="R3">
-        <v>3124.378640465592</v>
+        <v>5807.839804894478</v>
       </c>
       <c r="S3">
-        <v>0.07471058806051195</v>
+        <v>0.1406165263115481</v>
       </c>
       <c r="T3">
-        <v>0.0617000660397561</v>
+        <v>0.1354506986023989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H4">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I4">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J4">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>716.697209681908</v>
+        <v>989.2463674718844</v>
       </c>
       <c r="R4">
-        <v>4300.183258091448</v>
+        <v>5935.478204831306</v>
       </c>
       <c r="S4">
-        <v>0.1028265959250397</v>
+        <v>0.1437068437145789</v>
       </c>
       <c r="T4">
-        <v>0.08491979415393708</v>
+        <v>0.1384274870505524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H5">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I5">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J5">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>229.801704399992</v>
+        <v>527.894224029117</v>
       </c>
       <c r="R5">
-        <v>919.2068175999681</v>
+        <v>2111.576896116468</v>
       </c>
       <c r="S5">
-        <v>0.03297030696088657</v>
+        <v>0.07668667305218821</v>
       </c>
       <c r="T5">
-        <v>0.0181524481749947</v>
+        <v>0.04924629041776011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H6">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I6">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J6">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>104.815584888688</v>
+        <v>522.8305034154089</v>
       </c>
       <c r="R6">
-        <v>628.893509332128</v>
+        <v>3136.983020492453</v>
       </c>
       <c r="S6">
-        <v>0.01503819137063383</v>
+        <v>0.07595107135500115</v>
       </c>
       <c r="T6">
-        <v>0.01241935614179718</v>
+        <v>0.07316085772053869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.938724000000001</v>
+        <v>16.6160005</v>
       </c>
       <c r="H7">
-        <v>17.877448</v>
+        <v>33.232001</v>
       </c>
       <c r="I7">
-        <v>0.3465268197322602</v>
+        <v>0.6672963354196896</v>
       </c>
       <c r="J7">
-        <v>0.2718125595206999</v>
+        <v>0.6022128312718646</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>709.2473851019909</v>
+        <v>1243.713824115853</v>
       </c>
       <c r="R7">
-        <v>4255.484310611944</v>
+        <v>7462.282944695115</v>
       </c>
       <c r="S7">
-        <v>0.1017577483120685</v>
+        <v>0.1806730800585506</v>
       </c>
       <c r="T7">
-        <v>0.08403708167611079</v>
+        <v>0.1740356951952955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>16.146557</v>
       </c>
       <c r="I8">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J8">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>80.67581456471835</v>
+        <v>110.734928613498</v>
       </c>
       <c r="R8">
-        <v>484.0548873883101</v>
+        <v>664.4095716809881</v>
       </c>
       <c r="S8">
-        <v>0.01157478956678452</v>
+        <v>0.01608635381767757</v>
       </c>
       <c r="T8">
-        <v>0.009559090608260844</v>
+        <v>0.01549538962256993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>16.146557</v>
       </c>
       <c r="I9">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J9">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>313.5418794292004</v>
@@ -1013,10 +1013,10 @@
         <v>2821.876914862803</v>
       </c>
       <c r="S9">
-        <v>0.04498474907688449</v>
+        <v>0.04554791945332876</v>
       </c>
       <c r="T9">
-        <v>0.05572627777827607</v>
+        <v>0.06581193909068116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>16.146557</v>
       </c>
       <c r="I10">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J10">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>431.5378178462564</v>
+        <v>320.4325625657777</v>
       </c>
       <c r="R10">
-        <v>3883.840360616307</v>
+        <v>2883.893063091999</v>
       </c>
       <c r="S10">
-        <v>0.06191396341803077</v>
+        <v>0.04654892219355155</v>
       </c>
       <c r="T10">
-        <v>0.07669787638228967</v>
+        <v>0.06725828246179057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>16.146557</v>
       </c>
       <c r="I11">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J11">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>138.3682323782687</v>
+        <v>170.993298061446</v>
       </c>
       <c r="R11">
-        <v>830.2093942696121</v>
+        <v>1025.959788368676</v>
       </c>
       <c r="S11">
-        <v>0.019852085549401</v>
+        <v>0.0248400276905288</v>
       </c>
       <c r="T11">
-        <v>0.0163949317121268</v>
+        <v>0.02392747987907552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>16.146557</v>
       </c>
       <c r="I12">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J12">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>63.11157371356133</v>
+        <v>169.3530787735912</v>
       </c>
       <c r="R12">
-        <v>568.004163422052</v>
+        <v>1524.177708962321</v>
       </c>
       <c r="S12">
-        <v>0.00905479775945826</v>
+        <v>0.02460175465298431</v>
       </c>
       <c r="T12">
-        <v>0.01121691652224793</v>
+        <v>0.03554694041305453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>16.146557</v>
       </c>
       <c r="I13">
-        <v>0.2086507741237513</v>
+        <v>0.216147849292316</v>
       </c>
       <c r="J13">
-        <v>0.2454957209561943</v>
+        <v>0.2925994076090256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>427.0521284935913</v>
+        <v>402.8586011171299</v>
       </c>
       <c r="R13">
-        <v>3843.469156442321</v>
+        <v>3625.727410054169</v>
       </c>
       <c r="S13">
-        <v>0.06127038875319224</v>
+        <v>0.058522871484245</v>
       </c>
       <c r="T13">
-        <v>0.07590062795299296</v>
+        <v>0.08455937614185392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H14">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I14">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J14">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>40.105678774</v>
+        <v>59.712830489232</v>
       </c>
       <c r="R14">
-        <v>160.422715096</v>
+        <v>238.851321956928</v>
       </c>
       <c r="S14">
-        <v>0.005754076295935161</v>
+        <v>0.008674423966601116</v>
       </c>
       <c r="T14">
-        <v>0.003168019390321133</v>
+        <v>0.005570501168766347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H15">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I15">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J15">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>155.8683970708</v>
+        <v>169.074684311928</v>
       </c>
       <c r="R15">
-        <v>935.2103824248001</v>
+        <v>1014.448105871568</v>
       </c>
       <c r="S15">
-        <v>0.02236288416721511</v>
+        <v>0.02456131256422992</v>
       </c>
       <c r="T15">
-        <v>0.01846848573643972</v>
+        <v>0.02365900390716454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H16">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I16">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J16">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>214.5267103252</v>
+        <v>172.790424225624</v>
       </c>
       <c r="R16">
-        <v>1287.1602619512</v>
+        <v>1036.742545353744</v>
       </c>
       <c r="S16">
-        <v>0.03077875992781924</v>
+        <v>0.02510109443517696</v>
       </c>
       <c r="T16">
-        <v>0.0254187735563011</v>
+        <v>0.02417895581772942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H17">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I17">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J17">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>68.7858177848</v>
+        <v>92.206623057264</v>
       </c>
       <c r="R17">
-        <v>275.1432711392</v>
+        <v>368.826492229056</v>
       </c>
       <c r="S17">
-        <v>0.009868897764887705</v>
+        <v>0.01339476515137765</v>
       </c>
       <c r="T17">
-        <v>0.005433514933117503</v>
+        <v>0.008601787878755991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H18">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I18">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J18">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>31.3741177072</v>
+        <v>91.32214931869601</v>
       </c>
       <c r="R18">
-        <v>188.2447062432</v>
+        <v>547.932895912176</v>
       </c>
       <c r="S18">
-        <v>0.004501334287899244</v>
+        <v>0.01326627852408493</v>
       </c>
       <c r="T18">
-        <v>0.003717446616876472</v>
+        <v>0.01277891540258973</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.6756</v>
+        <v>2.902296</v>
       </c>
       <c r="H19">
-        <v>5.3512</v>
+        <v>5.804592</v>
       </c>
       <c r="I19">
-        <v>0.1037247775941662</v>
+        <v>0.1165558152879945</v>
       </c>
       <c r="J19">
-        <v>0.08136079425358526</v>
+        <v>0.1051877611191097</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>212.2967778822667</v>
+        <v>217.2379362215439</v>
       </c>
       <c r="R19">
-        <v>1273.7806672936</v>
+        <v>1303.427617329264</v>
       </c>
       <c r="S19">
-        <v>0.03045882515040968</v>
+        <v>0.03155794064652389</v>
       </c>
       <c r="T19">
-        <v>0.02515455402052933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8.798677</v>
-      </c>
-      <c r="H20">
-        <v>26.396031</v>
-      </c>
-      <c r="I20">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J20">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>14.989415</v>
-      </c>
-      <c r="N20">
-        <v>29.97883</v>
-      </c>
-      <c r="O20">
-        <v>0.05547446260572933</v>
-      </c>
-      <c r="P20">
-        <v>0.03893791130463959</v>
-      </c>
-      <c r="Q20">
-        <v>131.887021003955</v>
-      </c>
-      <c r="R20">
-        <v>791.3221260237301</v>
-      </c>
-      <c r="S20">
-        <v>0.01892220763989008</v>
-      </c>
-      <c r="T20">
-        <v>0.01562698797195353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.798677</v>
-      </c>
-      <c r="H21">
-        <v>26.396031</v>
-      </c>
-      <c r="I21">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J21">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.255493</v>
-      </c>
-      <c r="N21">
-        <v>174.766479</v>
-      </c>
-      <c r="O21">
-        <v>0.2155982850569436</v>
-      </c>
-      <c r="P21">
-        <v>0.2269949046819425</v>
-      </c>
-      <c r="Q21">
-        <v>512.571266382761</v>
-      </c>
-      <c r="R21">
-        <v>4613.14139744485</v>
-      </c>
-      <c r="S21">
-        <v>0.07354006375233209</v>
-      </c>
-      <c r="T21">
-        <v>0.09110007512747061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8.798677</v>
-      </c>
-      <c r="H22">
-        <v>26.396031</v>
-      </c>
-      <c r="I22">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J22">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>80.178917</v>
-      </c>
-      <c r="N22">
-        <v>240.536751</v>
-      </c>
-      <c r="O22">
-        <v>0.2967348847759819</v>
-      </c>
-      <c r="P22">
-        <v>0.3124204205415681</v>
-      </c>
-      <c r="Q22">
-        <v>705.468392892809</v>
-      </c>
-      <c r="R22">
-        <v>6349.215536035281</v>
-      </c>
-      <c r="S22">
-        <v>0.1012155655050923</v>
-      </c>
-      <c r="T22">
-        <v>0.1253839764490403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>8.798677</v>
-      </c>
-      <c r="H23">
-        <v>26.396031</v>
-      </c>
-      <c r="I23">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J23">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>25.708558</v>
-      </c>
-      <c r="N23">
-        <v>51.417116</v>
-      </c>
-      <c r="O23">
-        <v>0.09514503664207198</v>
-      </c>
-      <c r="P23">
-        <v>0.0667829632560165</v>
-      </c>
-      <c r="Q23">
-        <v>226.201297977766</v>
-      </c>
-      <c r="R23">
-        <v>1357.207787866596</v>
-      </c>
-      <c r="S23">
-        <v>0.03245374636689671</v>
-      </c>
-      <c r="T23">
-        <v>0.0268020684357775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>8.798677</v>
-      </c>
-      <c r="H24">
-        <v>26.396031</v>
-      </c>
-      <c r="I24">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J24">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>11.726012</v>
-      </c>
-      <c r="N24">
-        <v>35.178036</v>
-      </c>
-      <c r="O24">
-        <v>0.04339690469630291</v>
-      </c>
-      <c r="P24">
-        <v>0.04569088405516221</v>
-      </c>
-      <c r="Q24">
-        <v>103.173392086124</v>
-      </c>
-      <c r="R24">
-        <v>928.560528775116</v>
-      </c>
-      <c r="S24">
-        <v>0.01480258127831158</v>
-      </c>
-      <c r="T24">
-        <v>0.01833716477424063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>8.798677</v>
-      </c>
-      <c r="H25">
-        <v>26.396031</v>
-      </c>
-      <c r="I25">
-        <v>0.3410976285498225</v>
-      </c>
-      <c r="J25">
-        <v>0.4013309252695206</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="N25">
-        <v>238.036453</v>
-      </c>
-      <c r="O25">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="P25">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="Q25">
-        <v>698.1352880575604</v>
-      </c>
-      <c r="R25">
-        <v>6283.217592518044</v>
-      </c>
-      <c r="S25">
-        <v>0.1001634640072997</v>
-      </c>
-      <c r="T25">
-        <v>0.124080652511038</v>
+        <v>0.03039859694410369</v>
       </c>
     </row>
   </sheetData>
